--- a/Docs/04 Design/db.xlsx
+++ b/Docs/04 Design/db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="147">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,14 +389,209 @@
   </si>
   <si>
     <t>审批意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有字段</t>
+  </si>
+  <si>
+    <t>原有字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST/LST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST/LST/Both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measureGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用指标组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opertaionGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(17)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +627,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -586,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,17 +835,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -722,6 +933,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -756,6 +968,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,26 +1144,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86:G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -970,902 +1183,896 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="12"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="12"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="8"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="12"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="12"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="12"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="10" t="s">
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="10"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="10"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="12" t="s">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="12"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="12"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="12"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="10" t="s">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="10"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="10"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="12" t="s">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="12"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="12"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="8"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="8"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="8"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="12"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="12"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="8"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="8"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="12" t="s">
+      <c r="C51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="12"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="12"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="12"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="8"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="8"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="12"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="12"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="8"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="8"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:7" s="4" customFormat="1">
-      <c r="B62" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>93</v>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>13</v>
@@ -1876,139 +2083,537 @@
       <c r="F62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="2:7" s="4" customFormat="1">
-      <c r="B63" s="10"/>
-      <c r="C63" s="2"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="2:7" s="4" customFormat="1">
-      <c r="B64" s="10"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="2:7" s="4" customFormat="1">
-      <c r="B65" s="10"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="2:7" s="4" customFormat="1">
-      <c r="B66" s="10"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7" s="4" customFormat="1">
-      <c r="B67" s="10"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="8"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="8"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="8"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="8"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="8"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="8"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="8"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="8"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="8"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="16"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" s="19"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="8"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="8"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="8"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="8"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="8"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2018,12 +2623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,12 +2637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/04 Design/db.xlsx
+++ b/Docs/04 Design/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="201">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,6 +584,222 @@
   </si>
   <si>
     <t>varchar(17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STLST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST/LST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phaseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产阶段ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个时排序逗号存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workstationId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makedAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destinations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workOperations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workBookId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continueFromId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿用来源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒换算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondConvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(512)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationGroupOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺组合ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,16 +1361,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G106"/>
+  <dimension ref="B1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86:G89"/>
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
@@ -1201,7 +1417,7 @@
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>106</v>
@@ -2420,34 +2636,34 @@
       <c r="G85" s="19"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C87" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D87" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E87" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F87" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="G87" s="19"/>
     </row>
@@ -2455,13 +2671,13 @@
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="G88" s="19"/>
     </row>
@@ -2480,140 +2696,600 @@
       <c r="G89" s="19"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="9"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="9"/>
+      <c r="B91" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="9"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="19"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="9"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="19"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="8"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="9"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G94" s="19"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="8"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="9"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G95" s="19"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="8"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="9"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="19"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="8"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="9"/>
+      <c r="B97" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="19"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="8"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="9"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="19"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="9"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="9"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="19"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="8"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="9"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="8"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="9"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="8"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="9"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G103" s="19"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="8"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="9"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" s="19"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="8"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="16"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="17"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G107" s="19"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="17"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="17"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="17"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="17"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G117" s="19"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="17"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G119" s="19"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G120" s="19"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="17"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G121" s="19"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="17"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="8"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="8"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="8"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="8"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="8"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="8"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="8"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="9"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="8"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="8"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="8"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="8"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="14"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Docs/04 Design/db.xlsx
+++ b/Docs/04 Design/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="207">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手顺组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,6 +796,34 @@
   </si>
   <si>
     <t>usedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺operation/标准书名/标准书编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,9 +1073,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1361,11 +1382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G136"/>
+  <dimension ref="B1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90:F90"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1396,7 @@
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1400,62 +1421,62 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -1967,35 +1988,35 @@
       <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="9"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
@@ -2408,888 +2429,1084 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="19"/>
+      <c r="G70" s="13"/>
     </row>
     <row r="71" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18" t="s">
+      <c r="B71" s="12"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="19"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18" t="s">
+      <c r="B72" s="12"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="12"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="12"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="12"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="12"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="12"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18" t="s">
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="10"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="12"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="12"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="12"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="12"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="12"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="10"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="10"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="10"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="10"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="10"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="10"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="12"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="12"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="12"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="12"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="12"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="12"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="12"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E120" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18" t="s">
+      <c r="F120" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="12"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E121" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F74" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G74" s="19"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18" t="s">
+      <c r="F121" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G121" s="18"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="12"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E122" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F75" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18" t="s">
+      <c r="F122" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="12"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E123" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F76" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18" t="s">
+      <c r="F123" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G123" s="18"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="12"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E124" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F77" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18" t="s">
+      <c r="F124" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="12"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E125" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F78" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18" t="s">
+      <c r="F125" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G125" s="18"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="12"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E126" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F79" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18" t="s">
+      <c r="F126" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="12"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E127" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18" t="s">
+      <c r="F127" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="12"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="12"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E129" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F81" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18" t="s">
+      <c r="F129" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="12"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E130" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F82" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18" t="s">
+      <c r="F130" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G130" s="18"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="12"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E131" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F83" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18" t="s">
+      <c r="F131" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G131" s="18"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="12"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E132" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18" t="s">
+      <c r="F132" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E86" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="G132" s="18"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="12"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D91" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="17"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18" t="s">
+      <c r="F133" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F96" s="18" t="s">
+      <c r="G133" s="13"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="12"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="19"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G101" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G102" s="19"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="17"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G104" s="19"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F105" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G105" s="19"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106" s="19"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="17"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="17"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18" t="s">
+      <c r="F134" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G134" s="13"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E135" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F109" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G109" s="19"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="17"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18" t="s">
+      <c r="G135" s="13"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="12"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G110" s="19"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="17"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18" t="s">
+      <c r="F136" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="12"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G111" s="19"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G112" s="19"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D113" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="19"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="17"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="19"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="17"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="19"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="17"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F116" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" s="19"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="17"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F117" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G117" s="19"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="17"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="17"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G119" s="19"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F120" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G120" s="19"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="17"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G121" s="19"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="17"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G122" s="19"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18" t="s">
+      <c r="E137" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="F137" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F123" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G123" s="19"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="8"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="8"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="8"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="8"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="9"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="8"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="8"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="9"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="8"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="9"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="8"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="9"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="8"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="8"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="8"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="9"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="8"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="14"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="16"/>
+      <c r="G137" s="13"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="8"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="8"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="8"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="8"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="8"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="9"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="8"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="8"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="8"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="9"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="8"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="9"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="8"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="8"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="8"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="14"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Docs/04 Design/db.xlsx
+++ b/Docs/04 Design/db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="205">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,18 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>measures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(17)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分析表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,135 +691,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒换算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondConvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(512)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationGroupOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺组合ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺operation/标准书名/标准书编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(256)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frequency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒换算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondConvert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(512)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationGroupOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operationGroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手顺组合ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用次数统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usedCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手顺operation/标准书名/标准书编号</t>
+    <t>Tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,7 +1088,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1170,7 +1162,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1205,7 +1196,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1381,26 +1371,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="10" t="s">
         <v>104</v>
       </c>
@@ -1434,11 +1424,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="10"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>106</v>
@@ -1450,7 +1440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="12" t="s">
         <v>98</v>
       </c>
@@ -1464,7 +1454,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="12"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1478,7 +1468,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
@@ -1496,7 +1486,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -1510,7 +1500,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1524,7 +1514,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="12" t="s">
         <v>62</v>
       </c>
@@ -1542,7 +1532,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -1556,7 +1546,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -1570,7 +1560,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1588,7 +1578,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1602,7 +1592,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1616,7 +1606,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="12" t="s">
         <v>36</v>
       </c>
@@ -1634,7 +1624,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="12"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
@@ -1648,7 +1638,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="12"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
@@ -1662,7 +1652,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="12"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -1676,7 +1666,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="12"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
@@ -1690,7 +1680,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="12"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -1704,7 +1694,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="12"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
@@ -1718,7 +1708,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="12"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -1732,7 +1722,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="12"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -1746,7 +1736,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="12"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -1760,7 +1750,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1768,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="10"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -1792,7 +1782,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="10"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -1806,7 +1796,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="12" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1814,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
@@ -1838,7 +1828,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="12"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -1852,7 +1842,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="12"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
@@ -1866,7 +1856,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
@@ -1884,7 +1874,7 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="10"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -1898,7 +1888,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="10"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -1912,7 +1902,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36" s="12" t="s">
         <v>54</v>
       </c>
@@ -1930,7 +1920,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="12"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
@@ -1944,7 +1934,7 @@
       </c>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38" s="12"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
@@ -1958,7 +1948,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="8" t="s">
         <v>65</v>
       </c>
@@ -1976,7 +1966,7 @@
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2" t="s">
@@ -1990,7 +1980,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
@@ -2004,7 +1994,7 @@
       </c>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7">
       <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
@@ -2018,7 +2008,7 @@
       </c>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7">
       <c r="B43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
@@ -2032,7 +2022,7 @@
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7">
       <c r="B44" s="12" t="s">
         <v>67</v>
       </c>
@@ -2050,7 +2040,7 @@
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7">
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
@@ -2064,7 +2054,7 @@
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7">
       <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
@@ -2078,7 +2068,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="B47" s="8" t="s">
         <v>69</v>
       </c>
@@ -2096,7 +2086,7 @@
       </c>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="B48" s="8"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
@@ -2110,7 +2100,7 @@
       </c>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49" s="8"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
@@ -2124,7 +2114,7 @@
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
@@ -2138,7 +2128,7 @@
       </c>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51" s="12" t="s">
         <v>73</v>
       </c>
@@ -2156,7 +2146,7 @@
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52" s="12"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
@@ -2170,7 +2160,7 @@
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="12"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -2184,7 +2174,7 @@
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="12"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -2198,7 +2188,7 @@
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="8" t="s">
         <v>78</v>
       </c>
@@ -2216,7 +2206,7 @@
       </c>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56" s="8"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2" t="s">
@@ -2230,7 +2220,7 @@
       </c>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57" s="8"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2244,7 +2234,7 @@
       </c>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58" s="12" t="s">
         <v>84</v>
       </c>
@@ -2262,7 +2252,7 @@
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="12"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
@@ -2276,7 +2266,7 @@
       </c>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="12"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
@@ -2290,7 +2280,7 @@
       </c>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="B61" s="12"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
@@ -2304,7 +2294,7 @@
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="8" t="s">
         <v>86</v>
       </c>
@@ -2322,7 +2312,7 @@
       </c>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7">
       <c r="B63" s="8"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
@@ -2336,7 +2326,7 @@
       </c>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7">
       <c r="B64" s="8"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
@@ -2350,7 +2340,7 @@
       </c>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7">
       <c r="B65" s="12" t="s">
         <v>91</v>
       </c>
@@ -2368,7 +2358,7 @@
       </c>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7">
       <c r="B66" s="12"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
@@ -2382,7 +2372,7 @@
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" s="4" customFormat="1">
       <c r="B67" s="10" t="s">
         <v>93</v>
       </c>
@@ -2400,7 +2390,7 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" s="4" customFormat="1">
       <c r="B68" s="10"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
@@ -2414,7 +2404,7 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" s="4" customFormat="1">
       <c r="B69" s="10"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
@@ -2428,7 +2418,7 @@
       </c>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" s="4" customFormat="1">
       <c r="B70" s="12" t="s">
         <v>111</v>
       </c>
@@ -2446,7 +2436,7 @@
       </c>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" s="4" customFormat="1">
       <c r="B71" s="12"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
@@ -2460,7 +2450,7 @@
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" s="4" customFormat="1">
       <c r="B72" s="12"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
@@ -2470,11 +2460,11 @@
         <v>128</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="B73" s="12"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
@@ -2484,11 +2474,11 @@
         <v>129</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="B74" s="12"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
@@ -2498,11 +2488,11 @@
         <v>130</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="B75" s="12"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
@@ -2512,11 +2502,11 @@
         <v>131</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7">
       <c r="B76" s="12"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
@@ -2526,11 +2516,11 @@
         <v>132</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7">
       <c r="B77" s="12"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
@@ -2540,11 +2530,11 @@
         <v>133</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7">
       <c r="B78" s="12"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
@@ -2554,11 +2544,11 @@
         <v>134</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7">
       <c r="B79" s="12"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
@@ -2568,11 +2558,11 @@
         <v>135</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7">
       <c r="B80" s="12"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
@@ -2582,11 +2572,11 @@
         <v>136</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7">
       <c r="B81" s="12"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
@@ -2596,11 +2586,11 @@
         <v>137</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7">
       <c r="B82" s="12"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
@@ -2610,11 +2600,11 @@
         <v>138</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7">
       <c r="B83" s="12"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
@@ -2624,11 +2614,11 @@
         <v>139</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7">
       <c r="B84" s="12"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
@@ -2638,11 +2628,11 @@
         <v>140</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7">
       <c r="B85" s="12"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
@@ -2656,21 +2646,21 @@
       </c>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7">
       <c r="B86" s="12"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7">
       <c r="B87" s="10" t="s">
         <v>142</v>
       </c>
@@ -2688,7 +2678,7 @@
       </c>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7">
       <c r="B88" s="10"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
@@ -2702,7 +2692,7 @@
       </c>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7">
       <c r="B89" s="10"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
@@ -2716,26 +2706,26 @@
       </c>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7">
       <c r="B90" s="10"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7">
       <c r="B91" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>13</v>
@@ -2748,765 +2738,937 @@
       </c>
       <c r="G91" s="13"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7">
       <c r="B92" s="12"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7">
       <c r="B93" s="12"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7">
       <c r="B94" s="12"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95" s="12"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7">
       <c r="B96" s="12"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="2:7" s="4" customFormat="1">
+      <c r="B97" s="12"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G97" s="18"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="12"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G98" s="18"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="12"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G99" s="18"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="12"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" s="18"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="12"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G101" s="18"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="12"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G102" s="18"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="12"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G103" s="18"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="12"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="12"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G105" s="18"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="12"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G106" s="18"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="12"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G107" s="18"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="12"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G108" s="18"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="12"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G109" s="18"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="12"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" s="18"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="12"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="10"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="10"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="10"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="10"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="10"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="10"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="10"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="10"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="10"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="10"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="10"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="10"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="10"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="E125" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="10"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="10"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E128" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F128" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="10"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="10"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="10"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="10"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="10"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="10"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="10"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="10"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="10"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="10"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="10"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G108" s="11"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="10"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G109" s="11"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="10"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G110" s="11"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="10"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G111" s="11"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="10"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="12"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="12"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="12"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="12"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" s="13"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="12"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G118" s="13"/>
-    </row>
-    <row r="119" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="12"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G119" s="18"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="12"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G120" s="18"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="12"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G121" s="18"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="12"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G122" s="18"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="12"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F123" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G123" s="18"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="12"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G124" s="18"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="12"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G125" s="18"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="12"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G126" s="18"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E127" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G127" s="18"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="12"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G128" s="18"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="13"/>
+    </row>
+    <row r="129" spans="2:7">
       <c r="B129" s="12"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G129" s="18"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="2:7">
       <c r="B130" s="12"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G130" s="18"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D130" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="2:7">
       <c r="B131" s="12"/>
       <c r="C131" s="3"/>
       <c r="D131" s="17" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="F131" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G131" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G131" s="18"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:7">
       <c r="B132" s="12"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F132" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G132" s="18"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D132" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="2:7">
       <c r="B133" s="12"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G133" s="13"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" s="4" customFormat="1">
       <c r="B134" s="12"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G134" s="13"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D134" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="2:7">
       <c r="B135" s="12"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G135" s="13"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D135" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G135" s="18"/>
+    </row>
+    <row r="136" spans="2:7">
       <c r="B136" s="12"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G136" s="13"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D136" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="2:7">
       <c r="B137" s="12"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G137" s="13"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="8"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="8"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="8"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="9"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="8"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="9"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="8"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="9"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="8"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="9"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="8"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="9"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="8"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="9"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="8"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="8"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="9"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="8"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="8"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="9"/>
-    </row>
-    <row r="150" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="14"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="16"/>
+      <c r="D137" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="12"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G138" s="18"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="12"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G139" s="18"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="12"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G140" s="18"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="12"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G141" s="18"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="12"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G142" s="18"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="12"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G143" s="18"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="12"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G144" s="18"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="12"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G145" s="18"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="12"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="12"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F147" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G147" s="18"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="12"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="12"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G149" s="13"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="8"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="8"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="8"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="8"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="8"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="8"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="8"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="8"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="8"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="8"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="8"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="8"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="9"/>
+    </row>
+    <row r="162" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B162" s="14"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3516,12 +3678,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3530,12 +3692,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/04 Design/db.xlsx
+++ b/Docs/04 Design/db.xlsx
@@ -840,7 +840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,12 +856,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,12 +1059,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,8 +1363,8 @@
   <dimension ref="B1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2769,16 +2757,16 @@
     <row r="94" spans="2:7">
       <c r="B94" s="12"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G94" s="18" t="s">
+      <c r="G94" s="13" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2813,198 +2801,198 @@
     <row r="97" spans="2:7" s="4" customFormat="1">
       <c r="B97" s="12"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G97" s="18"/>
+      <c r="G97" s="13"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="12"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G98" s="18"/>
+      <c r="G98" s="13"/>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="12"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G99" s="18"/>
+      <c r="G99" s="13"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="12"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G100" s="18"/>
+      <c r="G100" s="13"/>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="12"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G101" s="18"/>
+      <c r="G101" s="13"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="12"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G102" s="18"/>
+      <c r="G102" s="13"/>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="12"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G103" s="18"/>
+      <c r="G103" s="13"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="12"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G104" s="18"/>
+      <c r="G104" s="13"/>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="12"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G105" s="18"/>
+      <c r="G105" s="13"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="12"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G106" s="18"/>
+      <c r="G106" s="13"/>
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="12"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G107" s="18"/>
+      <c r="G107" s="13"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="12"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G108" s="18"/>
+      <c r="G108" s="13"/>
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="12"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G109" s="18"/>
+      <c r="G109" s="13"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="12"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G110" s="18"/>
+      <c r="G110" s="13"/>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="12"/>
@@ -3301,16 +3289,16 @@
     <row r="131" spans="2:7">
       <c r="B131" s="12"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F131" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G131" s="18" t="s">
+      <c r="G131" s="13" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3345,198 +3333,198 @@
     <row r="134" spans="2:7" s="4" customFormat="1">
       <c r="B134" s="12"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E134" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F134" s="17" t="s">
+      <c r="F134" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G134" s="18"/>
+      <c r="G134" s="13"/>
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="12"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E135" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G135" s="18"/>
+      <c r="G135" s="13"/>
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="12"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="E136" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F136" s="17" t="s">
+      <c r="F136" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G136" s="18"/>
+      <c r="G136" s="13"/>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="12"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F137" s="17" t="s">
+      <c r="F137" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G137" s="18"/>
+      <c r="G137" s="13"/>
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="12"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F138" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G138" s="18"/>
+      <c r="G138" s="13"/>
     </row>
     <row r="139" spans="2:7">
       <c r="B139" s="12"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F139" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G139" s="18"/>
+      <c r="G139" s="13"/>
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="12"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="17" t="s">
+      <c r="D140" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F140" s="17" t="s">
+      <c r="F140" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G140" s="18"/>
+      <c r="G140" s="13"/>
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="12"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E141" s="17" t="s">
+      <c r="E141" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F141" s="17" t="s">
+      <c r="F141" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G141" s="18"/>
+      <c r="G141" s="13"/>
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="12"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E142" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F142" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G142" s="18"/>
+      <c r="G142" s="13"/>
     </row>
     <row r="143" spans="2:7">
       <c r="B143" s="12"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F143" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G143" s="18"/>
+      <c r="G143" s="13"/>
     </row>
     <row r="144" spans="2:7">
       <c r="B144" s="12"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E144" s="17" t="s">
+      <c r="E144" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F144" s="17" t="s">
+      <c r="F144" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G144" s="18"/>
+      <c r="G144" s="13"/>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="12"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E145" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F145" s="17" t="s">
+      <c r="F145" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G145" s="18"/>
+      <c r="G145" s="13"/>
     </row>
     <row r="146" spans="2:7">
       <c r="B146" s="12"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="17" t="s">
+      <c r="D146" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E146" s="17" t="s">
+      <c r="E146" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F146" s="17" t="s">
+      <c r="F146" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G146" s="18"/>
+      <c r="G146" s="13"/>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="12"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G147" s="18"/>
+      <c r="G147" s="13"/>
     </row>
     <row r="148" spans="2:7">
       <c r="B148" s="12"/>

--- a/Docs/04 Design/db.xlsx
+++ b/Docs/04 Design/db.xlsx
@@ -567,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>opertaionGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分析表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,6 +812,10 @@
   </si>
   <si>
     <t>Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1363,8 +1363,8 @@
   <dimension ref="B1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1416,7 +1416,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>106</v>
@@ -2448,7 +2448,7 @@
         <v>128</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G72" s="13"/>
     </row>
@@ -2462,7 +2462,7 @@
         <v>129</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G73" s="13"/>
     </row>
@@ -2476,7 +2476,7 @@
         <v>130</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G74" s="13"/>
     </row>
@@ -2490,7 +2490,7 @@
         <v>131</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G75" s="13"/>
     </row>
@@ -2504,7 +2504,7 @@
         <v>132</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G76" s="13"/>
     </row>
@@ -2518,7 +2518,7 @@
         <v>133</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G77" s="13"/>
     </row>
@@ -2532,7 +2532,7 @@
         <v>134</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -2546,7 +2546,7 @@
         <v>135</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G79" s="13"/>
     </row>
@@ -2560,7 +2560,7 @@
         <v>136</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G80" s="13"/>
     </row>
@@ -2574,7 +2574,7 @@
         <v>137</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -2588,7 +2588,7 @@
         <v>138</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G82" s="13"/>
     </row>
@@ -2602,7 +2602,7 @@
         <v>139</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G83" s="13"/>
     </row>
@@ -2616,7 +2616,7 @@
         <v>140</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -2638,10 +2638,10 @@
       <c r="B86" s="12"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>12</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="10" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>141</v>
@@ -2698,10 +2698,10 @@
       <c r="B90" s="10"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>12</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>13</v>
@@ -2730,10 +2730,10 @@
       <c r="B92" s="12"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>12</v>
@@ -2744,10 +2744,10 @@
       <c r="B93" s="12"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>12</v>
@@ -2758,26 +2758,26 @@
       <c r="B94" s="12"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="12"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>23</v>
@@ -2788,13 +2788,13 @@
       <c r="B96" s="12"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G96" s="13"/>
     </row>
@@ -2808,7 +2808,7 @@
         <v>128</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G97" s="13"/>
     </row>
@@ -2822,7 +2822,7 @@
         <v>129</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G98" s="13"/>
     </row>
@@ -2836,7 +2836,7 @@
         <v>130</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G99" s="13"/>
     </row>
@@ -2850,7 +2850,7 @@
         <v>131</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G100" s="13"/>
     </row>
@@ -2864,7 +2864,7 @@
         <v>132</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G101" s="13"/>
     </row>
@@ -2878,7 +2878,7 @@
         <v>133</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G102" s="13"/>
     </row>
@@ -2892,7 +2892,7 @@
         <v>134</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G103" s="13"/>
     </row>
@@ -2906,7 +2906,7 @@
         <v>135</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G104" s="13"/>
     </row>
@@ -2920,7 +2920,7 @@
         <v>136</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G105" s="13"/>
     </row>
@@ -2928,13 +2928,13 @@
       <c r="B106" s="12"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="G106" s="13"/>
     </row>
@@ -2948,7 +2948,7 @@
         <v>137</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G107" s="13"/>
     </row>
@@ -2962,7 +2962,7 @@
         <v>138</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G108" s="13"/>
     </row>
@@ -2976,7 +2976,7 @@
         <v>139</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G109" s="13"/>
     </row>
@@ -2990,7 +2990,7 @@
         <v>140</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G110" s="13"/>
     </row>
@@ -2998,22 +2998,22 @@
       <c r="B111" s="12"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>13</v>
@@ -3044,7 +3044,7 @@
       <c r="B114" s="10"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>106</v>
@@ -3053,7 +3053,7 @@
         <v>107</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="2:7">
@@ -3074,29 +3074,29 @@
       <c r="B116" s="10"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="10"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G117" s="11"/>
     </row>
@@ -3104,13 +3104,13 @@
       <c r="B118" s="10"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G118" s="11"/>
     </row>
@@ -3118,13 +3118,13 @@
       <c r="B119" s="10"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G119" s="11"/>
     </row>
@@ -3132,13 +3132,13 @@
       <c r="B120" s="10"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="G120" s="11"/>
     </row>
@@ -3146,13 +3146,13 @@
       <c r="B121" s="10"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G121" s="11"/>
     </row>
@@ -3160,13 +3160,13 @@
       <c r="B122" s="10"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G122" s="11"/>
     </row>
@@ -3174,13 +3174,13 @@
       <c r="B123" s="10"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G123" s="11"/>
     </row>
@@ -3188,13 +3188,13 @@
       <c r="B124" s="10"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G124" s="11"/>
     </row>
@@ -3202,13 +3202,13 @@
       <c r="B125" s="10"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G125" s="11"/>
     </row>
@@ -3216,13 +3216,13 @@
       <c r="B126" s="10"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G126" s="11"/>
     </row>
@@ -3236,16 +3236,16 @@
         <v>4</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G127" s="11"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>13</v>
@@ -3262,10 +3262,10 @@
       <c r="B129" s="12"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>12</v>
@@ -3276,10 +3276,10 @@
       <c r="B130" s="12"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>12</v>
@@ -3290,26 +3290,26 @@
       <c r="B131" s="12"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E131" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G131" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="12"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>23</v>
@@ -3320,13 +3320,13 @@
       <c r="B133" s="12"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G133" s="13"/>
     </row>
@@ -3340,7 +3340,7 @@
         <v>128</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G134" s="13"/>
     </row>
@@ -3354,7 +3354,7 @@
         <v>129</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G135" s="13"/>
     </row>
@@ -3368,7 +3368,7 @@
         <v>130</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G136" s="13"/>
     </row>
@@ -3382,7 +3382,7 @@
         <v>131</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G137" s="13"/>
     </row>
@@ -3396,7 +3396,7 @@
         <v>132</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G138" s="13"/>
     </row>
@@ -3410,7 +3410,7 @@
         <v>133</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G139" s="13"/>
     </row>
@@ -3424,7 +3424,7 @@
         <v>134</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G140" s="13"/>
     </row>
@@ -3438,7 +3438,7 @@
         <v>135</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G141" s="13"/>
     </row>
@@ -3452,7 +3452,7 @@
         <v>136</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G142" s="13"/>
     </row>
@@ -3460,13 +3460,13 @@
       <c r="B143" s="12"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="G143" s="13"/>
     </row>
@@ -3480,7 +3480,7 @@
         <v>137</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G144" s="13"/>
     </row>
@@ -3494,7 +3494,7 @@
         <v>138</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G145" s="13"/>
     </row>
@@ -3508,7 +3508,7 @@
         <v>139</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G146" s="13"/>
     </row>
@@ -3522,7 +3522,7 @@
         <v>140</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G147" s="13"/>
     </row>
@@ -3530,13 +3530,13 @@
       <c r="B148" s="12"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="G148" s="13"/>
     </row>
@@ -3544,13 +3544,13 @@
       <c r="B149" s="12"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G149" s="13"/>
     </row>
